--- a/Turma Intensivo - Manhã Julho 2017/451 Intensivo Manha Excel Diario de bordo.xlsx
+++ b/Turma Intensivo - Manhã Julho 2017/451 Intensivo Manha Excel Diario de bordo.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8610"/>
   </bookViews>
   <sheets>
-    <sheet name="374 EXCEL AVANÇADO Sábado 1345" sheetId="1" r:id="rId1"/>
+    <sheet name="451 EXCEL AVANÇADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>451 Intensivo EXCEL AVANÇADO 9:00 as 12:00 LABORATÓRIO TOEFL</t>
   </si>
@@ -112,13 +112,16 @@
   </si>
   <si>
     <t>Função cont.se, cont.ses, soma.se, soma.ses, cont.valores, concatenar, funções E e OU</t>
+  </si>
+  <si>
+    <t>Tabela dinamica, Auditoria de formulas (Rastrear dependente e precedente), mostrar formulas, referencias abolutas relativas e mistas, criar graficos com ALT+ F1 e F11, Graficos dinamicos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -127,25 +130,30 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -377,11 +385,27 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,22 +416,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,12 +735,12 @@
   </sheetPr>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5:O5"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4:O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -743,27 +751,27 @@
     <col min="16" max="16" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="36">
+    <row r="2" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -777,21 +785,21 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="20.25" customHeight="1">
+    <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -805,21 +813,21 @@
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="18">
+    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>10</v>
@@ -833,21 +841,21 @@
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="18">
+    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>12</v>
@@ -861,19 +869,21 @@
       <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
+      <c r="F5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="18">
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -887,19 +897,19 @@
       <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="18">
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>16</v>
@@ -913,59 +923,59 @@
       <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" s="26" customFormat="1" ht="18">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20" t="s">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="19"/>
-    </row>
-    <row r="9" spans="1:16" s="26" customFormat="1" ht="18">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="19"/>
-    </row>
-    <row r="10" spans="1:16" ht="18">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
@@ -979,19 +989,19 @@
       <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="12"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="18">
+    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
         <v>20</v>
@@ -1005,19 +1015,19 @@
       <c r="E11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="18">
+    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
@@ -1031,19 +1041,19 @@
       <c r="E12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="18">
+    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>24</v>
@@ -1057,19 +1067,19 @@
       <c r="E13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="18">
+    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
         <v>26</v>
@@ -1083,34 +1093,34 @@
       <c r="E14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="12"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
       <c r="P14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F5:O5"/>
     <mergeCell ref="F14:O14"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F12:O12"/>
     <mergeCell ref="F10:O10"/>
     <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="F2:O2"/>
     <mergeCell ref="F11:O11"/>
-    <mergeCell ref="F5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Turma Intensivo - Manhã Julho 2017/451 Intensivo Manha Excel Diario de bordo.xlsx
+++ b/Turma Intensivo - Manhã Julho 2017/451 Intensivo Manha Excel Diario de bordo.xlsx
@@ -114,7 +114,7 @@
     <t>Função cont.se, cont.ses, soma.se, soma.ses, cont.valores, concatenar, funções E e OU</t>
   </si>
   <si>
-    <t>Tabela dinamica, Auditoria de formulas (Rastrear dependente e precedente), mostrar formulas, referencias abolutas relativas e mistas, criar graficos com ALT+ F1 e F11, Graficos dinamicos.</t>
+    <t>Tabela dinamica, Auditoria de formulas (Rastrear dependente e precedente), mostrar formulas, referencias abolutas relativas e mistas, criar graficos com ALT+ F1 e F11, Graficos dinamicos, remover dados duplicados.</t>
   </si>
 </sst>
 </file>
@@ -397,15 +397,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,6 +407,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,7 +737,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4:O4"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -753,22 +753,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="23"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="20"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="36" x14ac:dyDescent="0.2">
@@ -785,18 +785,18 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -937,12 +937,12 @@
     </row>
     <row r="8" spans="1:16" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -957,12 +957,12 @@
     </row>
     <row r="9" spans="1:16" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1107,6 +1107,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="F11:O11"/>
     <mergeCell ref="F6:O6"/>
     <mergeCell ref="F7:O7"/>
     <mergeCell ref="F4:O4"/>
@@ -1114,13 +1121,6 @@
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="F5:O5"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F11:O11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Turma Intensivo - Manhã Julho 2017/451 Intensivo Manha Excel Diario de bordo.xlsx
+++ b/Turma Intensivo - Manhã Julho 2017/451 Intensivo Manha Excel Diario de bordo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>451 Intensivo EXCEL AVANÇADO 9:00 as 12:00 LABORATÓRIO TOEFL</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Tabela dinamica, Auditoria de formulas (Rastrear dependente e precedente), mostrar formulas, referencias abolutas relativas e mistas, criar graficos com ALT+ F1 e F11, Graficos dinamicos, remover dados duplicados.</t>
+  </si>
+  <si>
+    <t>Tabelas dinamicas e Graficos dinamicos, Segmentação de dados(Pivot), minigraficos, funil no excel 2013 utilizando a função REPT, Conceitos e Exercicios praticos Dashboards, Botões de hiperlink, colar especial vinculo da imagem.</t>
   </si>
 </sst>
 </file>
@@ -397,6 +400,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -407,15 +419,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,9 +738,9 @@
   </sheetPr>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -753,22 +756,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="20"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="36" x14ac:dyDescent="0.2">
@@ -785,18 +788,18 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -897,7 +900,9 @@
       <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -937,12 +942,12 @@
     </row>
     <row r="8" spans="1:16" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -957,12 +962,12 @@
     </row>
     <row r="9" spans="1:16" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1107,6 +1112,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F5:O5"/>
     <mergeCell ref="F14:O14"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
@@ -1114,13 +1126,6 @@
     <mergeCell ref="F10:O10"/>
     <mergeCell ref="F13:O13"/>
     <mergeCell ref="F11:O11"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Turma Intensivo - Manhã Julho 2017/451 Intensivo Manha Excel Diario de bordo.xlsx
+++ b/Turma Intensivo - Manhã Julho 2017/451 Intensivo Manha Excel Diario de bordo.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="451 EXCEL AVANÇADO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>451 Intensivo EXCEL AVANÇADO 9:00 as 12:00 LABORATÓRIO TOEFL</t>
   </si>
@@ -48,9 +48,6 @@
     <t>01</t>
   </si>
   <si>
-    <t>Apresentação, Revisão função SE, Logica, navegação rapida, sintaxes, operadores lógicos e matematicos</t>
-  </si>
-  <si>
     <t>002</t>
   </si>
   <si>
@@ -105,19 +102,28 @@
     <t>10</t>
   </si>
   <si>
-    <t>Sabado</t>
-  </si>
-  <si>
     <t>Domingo</t>
   </si>
   <si>
     <t>Função cont.se, cont.ses, soma.se, soma.ses, cont.valores, concatenar, funções E e OU</t>
   </si>
   <si>
-    <t>Tabela dinamica, Auditoria de formulas (Rastrear dependente e precedente), mostrar formulas, referencias abolutas relativas e mistas, criar graficos com ALT+ F1 e F11, Graficos dinamicos, remover dados duplicados.</t>
-  </si>
-  <si>
-    <t>Tabelas dinamicas e Graficos dinamicos, Segmentação de dados(Pivot), minigraficos, funil no excel 2013 utilizando a função REPT, Conceitos e Exercicios praticos Dashboards, Botões de hiperlink, colar especial vinculo da imagem.</t>
+    <t>Apresentação, Revisão função SE, Logica, navegação rápida, sintaxes, operadores lógicos e matemáticos</t>
+  </si>
+  <si>
+    <t>Tabela dinâmica, Auditoria de formulas (Rastrear dependente e precedente), mostrar formulas, referencias absolutas relativas e mistas, criar gráficos com ALT+ F1 e F11, Gráficos dinâmicos, remover dados duplicados.</t>
+  </si>
+  <si>
+    <t>Tabelas dinâmicas e Gráficos dinâmicos, Segmentação de dados(Pivot), mini gráficos, funil no Excel 2013 utilizando a função REPT, Conceitos e Exercícios práticos Dashboards, Botões de hiperlink, colar especial vinculo da imagem.</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funções Texto(Direta. Esquerda, Ext. Texto, Maiúscula, Minúscula, PriMAiuscula), Função Procurar, Substituir, Função Procv, buscar dados de outra planilha com Procv, Definir nomes, Validação de dados em lista suspensa, </t>
+  </si>
+  <si>
+    <t>Projeto Barbearia, Função SEERRo, Formatação Condicional, extrair cor para padronizar atraves do logo, Congelar Paineis, Formatação de linha e Coluna, Função Hoje.]</t>
   </si>
 </sst>
 </file>
@@ -361,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -419,6 +425,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,11 +744,11 @@
   <sheetPr>
     <tabColor rgb="FF26A69A"/>
   </sheetPr>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7:O7"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -817,7 +825,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -833,7 +841,7 @@
     <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7">
         <v>42934</v>
@@ -842,10 +850,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -861,7 +869,7 @@
     <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7">
         <v>42935</v>
@@ -870,10 +878,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -889,7 +897,7 @@
     <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7">
         <v>42936</v>
@@ -898,10 +906,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -917,7 +925,7 @@
     <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7">
         <v>42937</v>
@@ -926,9 +934,11 @@
         <v>7</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -943,7 +953,7 @@
     <row r="8" spans="1:16" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -963,7 +973,7 @@
     <row r="9" spans="1:16" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -983,7 +993,7 @@
     <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7">
         <v>42940</v>
@@ -992,9 +1002,11 @@
         <v>7</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -1009,7 +1021,7 @@
     <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>42941</v>
@@ -1018,7 +1030,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
@@ -1035,7 +1047,7 @@
     <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <v>42942</v>
@@ -1044,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
@@ -1061,7 +1073,7 @@
     <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7">
         <v>42943</v>
@@ -1070,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
@@ -1087,7 +1099,7 @@
     <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>42944</v>
@@ -1096,7 +1108,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
@@ -1109,6 +1121,12 @@
       <c r="N14" s="16"/>
       <c r="O14" s="17"/>
       <c r="P14" s="1"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Turma Intensivo - Manhã Julho 2017/451 Intensivo Manha Excel Diario de bordo.xlsx
+++ b/Turma Intensivo - Manhã Julho 2017/451 Intensivo Manha Excel Diario de bordo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>451 Intensivo EXCEL AVANÇADO 9:00 as 12:00 LABORATÓRIO TOEFL</t>
   </si>
@@ -123,7 +123,10 @@
     <t xml:space="preserve">Funções Texto(Direta. Esquerda, Ext. Texto, Maiúscula, Minúscula, PriMAiuscula), Função Procurar, Substituir, Função Procv, buscar dados de outra planilha com Procv, Definir nomes, Validação de dados em lista suspensa, </t>
   </si>
   <si>
-    <t>Projeto Barbearia, Função SEERRo, Formatação Condicional, extrair cor para padronizar atraves do logo, Congelar Paineis, Formatação de linha e Coluna, Função Hoje.]</t>
+    <t>Projeto Barbearia, Função SEERRo, Formatação Condicional, extrair cor para padronizar através do logo, Congelar Painéis, Formatação de linha e Coluna, Função Hoje.]</t>
+  </si>
+  <si>
+    <t>Finalização Projeto Barbearia, Proteção de células por senha, caixa de texto com referencia, função texto( para dia da semana, para mês por extenso e resumido, Botões por hiperlinks, Funções data (Dia, mês, Ano, Dia.da.semana, Data, Int.)</t>
   </si>
 </sst>
 </file>
@@ -401,20 +404,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,8 +421,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,7 +751,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -764,22 +767,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="23"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="36" x14ac:dyDescent="0.2">
@@ -796,18 +799,18 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -824,18 +827,18 @@
       <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -852,18 +855,18 @@
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -880,18 +883,18 @@
       <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -908,18 +911,18 @@
       <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -936,28 +939,28 @@
       <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -972,12 +975,12 @@
     </row>
     <row r="9" spans="1:16" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1004,18 +1007,18 @@
       <c r="E10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -1032,16 +1035,18 @@
       <c r="E11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -1058,16 +1063,16 @@
       <c r="E12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -1084,16 +1089,16 @@
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -1110,26 +1115,33 @@
       <c r="E14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
       <c r="P14" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="27"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="28"/>
+      <c r="C17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="F11:O11"/>
     <mergeCell ref="F6:O6"/>
     <mergeCell ref="F7:O7"/>
     <mergeCell ref="F4:O4"/>
@@ -1137,13 +1149,6 @@
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="F5:O5"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F11:O11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Turma Intensivo - Manhã Julho 2017/451 Intensivo Manha Excel Diario de bordo.xlsx
+++ b/Turma Intensivo - Manhã Julho 2017/451 Intensivo Manha Excel Diario de bordo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="451 EXCEL AVANÇADO" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>451 Intensivo EXCEL AVANÇADO 9:00 as 12:00 LABORATÓRIO TOEFL</t>
   </si>
@@ -123,10 +123,19 @@
     <t xml:space="preserve">Funções Texto(Direta. Esquerda, Ext. Texto, Maiúscula, Minúscula, PriMAiuscula), Função Procurar, Substituir, Função Procv, buscar dados de outra planilha com Procv, Definir nomes, Validação de dados em lista suspensa, </t>
   </si>
   <si>
-    <t>Projeto Barbearia, Função SEERRo, Formatação Condicional, extrair cor para padronizar através do logo, Congelar Painéis, Formatação de linha e Coluna, Função Hoje.]</t>
-  </si>
-  <si>
     <t>Finalização Projeto Barbearia, Proteção de células por senha, caixa de texto com referencia, função texto( para dia da semana, para mês por extenso e resumido, Botões por hiperlinks, Funções data (Dia, mês, Ano, Dia.da.semana, Data, Int.)</t>
+  </si>
+  <si>
+    <t>Prova...</t>
+  </si>
+  <si>
+    <t>Importação de Arquivos Txt, banco Access, Importar textos e documentos da WEB, Caixa de combinação, Botao de rotação, barra de rolagem.</t>
+  </si>
+  <si>
+    <t>Funções indice com corresp, Botes de formulario Macros (mudar cor da fornte, classificar e somar), Habilitar aba desenvolvedor, Revisão para prova, cont.se, procv, formatação condicional.</t>
+  </si>
+  <si>
+    <t>Projeto Barbearia, Função SEERRo, Formatação Condicional, extrair cor para padronizar através do logo, Congelar Painéis, Formatação de linha e Coluna, Função Hoje.</t>
   </si>
 </sst>
 </file>
@@ -370,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -411,6 +420,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -421,14 +439,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,9 +764,9 @@
   </sheetPr>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -767,22 +782,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="36" x14ac:dyDescent="0.2">
@@ -799,18 +814,18 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -955,12 +970,12 @@
     </row>
     <row r="8" spans="1:16" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -975,12 +990,12 @@
     </row>
     <row r="9" spans="1:16" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1008,7 +1023,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -1036,7 +1051,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -1063,7 +1078,9 @@
       <c r="E12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -1089,16 +1106,18 @@
       <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="19"/>
+      <c r="F13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -1115,7 +1134,9 @@
       <c r="E14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -1135,6 +1156,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F5:O5"/>
     <mergeCell ref="F14:O14"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
@@ -1142,13 +1170,6 @@
     <mergeCell ref="F10:O10"/>
     <mergeCell ref="F13:O13"/>
     <mergeCell ref="F11:O11"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="F4:O4"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Turma Intensivo - Manhã Julho 2017/451 Intensivo Manha Excel Diario de bordo.xlsx
+++ b/Turma Intensivo - Manhã Julho 2017/451 Intensivo Manha Excel Diario de bordo.xlsx
@@ -126,16 +126,16 @@
     <t>Finalização Projeto Barbearia, Proteção de células por senha, caixa de texto com referencia, função texto( para dia da semana, para mês por extenso e resumido, Botões por hiperlinks, Funções data (Dia, mês, Ano, Dia.da.semana, Data, Int.)</t>
   </si>
   <si>
-    <t>Prova...</t>
-  </si>
-  <si>
-    <t>Importação de Arquivos Txt, banco Access, Importar textos e documentos da WEB, Caixa de combinação, Botao de rotação, barra de rolagem.</t>
-  </si>
-  <si>
-    <t>Funções indice com corresp, Botes de formulario Macros (mudar cor da fornte, classificar e somar), Habilitar aba desenvolvedor, Revisão para prova, cont.se, procv, formatação condicional.</t>
-  </si>
-  <si>
-    <t>Projeto Barbearia, Função SEERRo, Formatação Condicional, extrair cor para padronizar através do logo, Congelar Painéis, Formatação de linha e Coluna, Função Hoje.</t>
+    <t>Prova..., Continuação aula Macro, introdução VBA</t>
+  </si>
+  <si>
+    <t>Projeto Barbearia, Função SEERRO, Formatação Condicional, extrair cor para padronizar através do logo, Congelar Painéis, Formatação de linha e Coluna, Função Hoje.</t>
+  </si>
+  <si>
+    <t>Importação de Arquivos Txt, banco Access, Importar textos e documentos da WEB, Caixa de combinação, Botão de rotação, barra de rolagem.</t>
+  </si>
+  <si>
+    <t>Funções índice com corresp, Botes de formulário Macros (mudar cor da fonte, classificar e somar), Habilitar aba desenvolvedor, Revisão para prova, cont.se, procv, formatação condicional.</t>
   </si>
 </sst>
 </file>
@@ -420,15 +420,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,6 +430,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -764,9 +764,9 @@
   </sheetPr>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -782,22 +782,22 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="36" x14ac:dyDescent="0.2">
@@ -814,18 +814,18 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -970,12 +970,12 @@
     </row>
     <row r="8" spans="1:16" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -990,12 +990,12 @@
     </row>
     <row r="9" spans="1:16" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1023,7 +1023,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -1079,7 +1079,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -1107,7 +1107,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
@@ -1156,6 +1156,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="F10:O10"/>
+    <mergeCell ref="F13:O13"/>
+    <mergeCell ref="F11:O11"/>
     <mergeCell ref="F6:O6"/>
     <mergeCell ref="F7:O7"/>
     <mergeCell ref="F4:O4"/>
@@ -1163,13 +1170,6 @@
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="F5:O5"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="F10:O10"/>
-    <mergeCell ref="F13:O13"/>
-    <mergeCell ref="F11:O11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
